--- a/src/main/resources/ExcelData/LoginData.xlsx
+++ b/src/main/resources/ExcelData/LoginData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Password</t>
   </si>
@@ -95,6 +95,27 @@
   </si>
   <si>
     <t>E:\Testing Softwares\Web Application Softwares(Eclipse)\eclipse-jee-2021-12-R-win32-x86_64\eclipse\f\eDepoze-WebManger-Automation/Automation Testing Report/staging_automation_test_report 2023.03.23.12.49.51.html</t>
+  </si>
+  <si>
+    <t>E:\Testing Softwares\Web Application Softwares(Eclipse)\eclipse-jee-2021-12-R-win32-x86_64\eclipse\f\eDepoze-WebManger-Automation/Automation Testing Report/staging_automation_test_report 2023.03.23.17.32.02.html</t>
+  </si>
+  <si>
+    <t>MATOtilia</t>
+  </si>
+  <si>
+    <t>MAThanh.medhurst</t>
+  </si>
+  <si>
+    <t>E:\Testing Softwares\Web Application Softwares(Eclipse)\eclipse-jee-2021-12-R-win32-x86_64\eclipse\f\eDepoze-WebManger-Automation/Automation Testing Report/staging_automation_test_report 2023.03.23.17.39.56.html</t>
+  </si>
+  <si>
+    <t>E:\Testing Softwares\Web Application Softwares(Eclipse)\eclipse-jee-2021-12-R-win32-x86_64\eclipse\f\eDepoze-WebManger-Automation/Automation Testing Report/staging_automation_test_report 2023.03.23.17.42.14.html</t>
+  </si>
+  <si>
+    <t>MATMax</t>
+  </si>
+  <si>
+    <t>MATmargarito.oconner</t>
   </si>
 </sst>
 </file>
@@ -475,7 +496,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -491,7 +512,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -523,7 +544,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
